--- a/Resources/SystemOutputs/Analyse-heads/heads-to-include.xlsx
+++ b/Resources/SystemOutputs/Analyse-heads/heads-to-include.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiel/Tilburg/Projects/SemanticAttributes/Resources/SystemOutputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiel/Tilburg/Projects/SemanticAttributes/Resources/SystemOutputs/Analyse-heads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63018F22-6F99-8940-9EE5-EDC6C83DCA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363B77A-F162-7A4D-B223-C6B3F7C3662D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15920" xr2:uid="{0471BB41-F094-E54F-8894-2C24BED92D82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11790" uniqueCount="5394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11960" uniqueCount="5395">
   <si>
     <t>accent light</t>
   </si>
@@ -16207,6 +16207,9 @@
   </si>
   <si>
     <t>gendered</t>
+  </si>
+  <si>
+    <t>general</t>
   </si>
 </sst>
 </file>
@@ -16558,10 +16561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09F1937-A484-F94D-8526-AC74EC5A0F62}">
-  <dimension ref="A1:H5385"/>
+  <dimension ref="A1:I5385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16571,7 +16574,7 @@
     <col min="7" max="7" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5384</v>
       </c>
@@ -16596,8 +16599,11 @@
       <c r="H1" t="s">
         <v>5393</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2277</v>
       </c>
@@ -16622,8 +16628,11 @@
       <c r="H2" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3255</v>
       </c>
@@ -16648,8 +16657,11 @@
       <c r="H3" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3263</v>
       </c>
@@ -16674,8 +16686,11 @@
       <c r="H4" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>476</v>
       </c>
@@ -16689,7 +16704,7 @@
         <v>5386</v>
       </c>
       <c r="E5" t="s">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="F5" t="s">
         <v>5386</v>
@@ -16700,8 +16715,11 @@
       <c r="H5" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1707</v>
       </c>
@@ -16726,8 +16744,11 @@
       <c r="H6" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2098</v>
       </c>
@@ -16752,8 +16773,11 @@
       <c r="H7" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>665</v>
       </c>
@@ -16778,8 +16802,11 @@
       <c r="H8" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1338</v>
       </c>
@@ -16804,8 +16831,11 @@
       <c r="H9" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3207</v>
       </c>
@@ -16813,7 +16843,7 @@
         <v>5387</v>
       </c>
       <c r="C10" t="s">
-        <v>5386</v>
+        <v>5387</v>
       </c>
       <c r="D10" t="s">
         <v>5386</v>
@@ -16830,8 +16860,11 @@
       <c r="H10" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3269</v>
       </c>
@@ -16856,8 +16889,11 @@
       <c r="H11" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4116</v>
       </c>
@@ -16882,8 +16918,11 @@
       <c r="H12" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>676</v>
       </c>
@@ -16908,8 +16947,11 @@
       <c r="H13" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2099</v>
       </c>
@@ -16934,8 +16976,11 @@
       <c r="H14" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1698</v>
       </c>
@@ -16960,8 +17005,11 @@
       <c r="H15" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1883</v>
       </c>
@@ -16986,8 +17034,11 @@
       <c r="H16" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3221</v>
       </c>
@@ -17012,8 +17063,11 @@
       <c r="H17" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>622</v>
       </c>
@@ -17038,8 +17092,11 @@
       <c r="H18" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1373</v>
       </c>
@@ -17064,8 +17121,11 @@
       <c r="H19" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2078</v>
       </c>
@@ -17090,8 +17150,11 @@
       <c r="H20" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1276</v>
       </c>
@@ -17116,8 +17179,11 @@
       <c r="H21" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1668</v>
       </c>
@@ -17142,8 +17208,11 @@
       <c r="H22" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1884</v>
       </c>
@@ -17168,8 +17237,11 @@
       <c r="H23" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3152</v>
       </c>
@@ -17194,8 +17266,11 @@
       <c r="H24" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5168</v>
       </c>
@@ -17220,8 +17295,11 @@
       <c r="H25" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>937</v>
       </c>
@@ -17246,8 +17324,11 @@
       <c r="H26" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1106</v>
       </c>
@@ -17272,8 +17353,11 @@
       <c r="H27" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1108</v>
       </c>
@@ -17298,8 +17382,11 @@
       <c r="H28" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1175</v>
       </c>
@@ -17324,8 +17411,11 @@
       <c r="H29" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1196</v>
       </c>
@@ -17350,8 +17440,11 @@
       <c r="H30" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1213</v>
       </c>
@@ -17376,8 +17469,11 @@
       <c r="H31" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1230</v>
       </c>
@@ -17402,8 +17498,11 @@
       <c r="H32" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1746</v>
       </c>
@@ -17428,8 +17527,11 @@
       <c r="H33" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2969</v>
       </c>
@@ -17454,8 +17556,11 @@
       <c r="H34" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2982</v>
       </c>
@@ -17480,8 +17585,11 @@
       <c r="H35" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3027</v>
       </c>
@@ -17506,8 +17614,11 @@
       <c r="H36" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3301</v>
       </c>
@@ -17532,8 +17643,11 @@
       <c r="H37" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3454</v>
       </c>
@@ -17558,8 +17672,11 @@
       <c r="H38" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3462</v>
       </c>
@@ -17584,8 +17701,11 @@
       <c r="H39" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4134</v>
       </c>
@@ -17610,8 +17730,11 @@
       <c r="H40" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4591</v>
       </c>
@@ -17636,8 +17759,11 @@
       <c r="H41" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4999</v>
       </c>
@@ -17662,8 +17788,11 @@
       <c r="H42" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1684</v>
       </c>
@@ -17688,8 +17817,11 @@
       <c r="H43" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2351</v>
       </c>
@@ -17714,8 +17846,11 @@
       <c r="H44" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2832</v>
       </c>
@@ -17740,8 +17875,11 @@
       <c r="H45" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>729</v>
       </c>
@@ -17766,8 +17904,11 @@
       <c r="H46" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1305</v>
       </c>
@@ -17792,8 +17933,11 @@
       <c r="H47" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3268</v>
       </c>
@@ -17818,8 +17962,11 @@
       <c r="H48" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>698</v>
       </c>
@@ -17844,8 +17991,11 @@
       <c r="H49" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>939</v>
       </c>
@@ -17870,8 +18020,11 @@
       <c r="H50" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1197</v>
       </c>
@@ -17896,8 +18049,11 @@
       <c r="H51" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1232</v>
       </c>
@@ -17922,8 +18078,11 @@
       <c r="H52" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1745</v>
       </c>
@@ -17948,8 +18107,11 @@
       <c r="H53" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3028</v>
       </c>
@@ -17974,8 +18136,11 @@
       <c r="H54" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3029</v>
       </c>
@@ -18000,8 +18165,11 @@
       <c r="H55" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3463</v>
       </c>
@@ -18026,8 +18194,11 @@
       <c r="H56" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3464</v>
       </c>
@@ -18052,8 +18223,11 @@
       <c r="H57" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>3747</v>
       </c>
@@ -18078,8 +18252,11 @@
       <c r="H58" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4135</v>
       </c>
@@ -18104,8 +18281,11 @@
       <c r="H59" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4407</v>
       </c>
@@ -18130,8 +18310,11 @@
       <c r="H60" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1629</v>
       </c>
@@ -18156,8 +18339,11 @@
       <c r="H61" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3080</v>
       </c>
@@ -18182,8 +18368,11 @@
       <c r="H62" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>3868</v>
       </c>
@@ -18208,8 +18397,11 @@
       <c r="H63" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3081</v>
       </c>
@@ -18234,8 +18426,11 @@
       <c r="H64" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1630</v>
       </c>
@@ -18260,8 +18455,11 @@
       <c r="H65" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -18286,8 +18484,11 @@
       <c r="H66" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -18312,8 +18513,11 @@
       <c r="H67" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2345</v>
       </c>
@@ -18338,8 +18542,11 @@
       <c r="H68" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2346</v>
       </c>
@@ -18364,8 +18571,11 @@
       <c r="H69" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4686</v>
       </c>
@@ -18390,8 +18600,11 @@
       <c r="H70" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1978</v>
       </c>
@@ -18416,8 +18629,11 @@
       <c r="H71" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2411</v>
       </c>
@@ -18442,8 +18658,11 @@
       <c r="H72" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5258</v>
       </c>
@@ -18468,8 +18687,11 @@
       <c r="H73" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5274</v>
       </c>
@@ -18494,8 +18716,11 @@
       <c r="H74" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>969</v>
       </c>
@@ -18520,8 +18745,11 @@
       <c r="H75" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -18546,8 +18774,11 @@
       <c r="H76" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -18572,8 +18803,11 @@
       <c r="H77" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2348</v>
       </c>
@@ -18598,8 +18832,11 @@
       <c r="H78" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>578</v>
       </c>
@@ -18624,8 +18861,11 @@
       <c r="H79" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1983</v>
       </c>
@@ -18650,8 +18890,11 @@
       <c r="H80" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2410</v>
       </c>
@@ -18676,8 +18919,11 @@
       <c r="H81" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>574</v>
       </c>
@@ -18702,8 +18948,11 @@
       <c r="H82" t="s">
         <v>5387</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -18728,8 +18977,11 @@
       <c r="H83" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>286</v>
       </c>
@@ -18754,8 +19006,11 @@
       <c r="H84" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>300</v>
       </c>
@@ -18780,8 +19035,11 @@
       <c r="H85" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>355</v>
       </c>
@@ -18806,8 +19064,11 @@
       <c r="H86" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>455</v>
       </c>
@@ -18832,8 +19093,11 @@
       <c r="H87" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>523</v>
       </c>
@@ -18858,8 +19122,11 @@
       <c r="H88" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>840</v>
       </c>
@@ -18884,8 +19151,11 @@
       <c r="H89" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1137</v>
       </c>
@@ -18910,8 +19180,11 @@
       <c r="H90" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1856</v>
       </c>
@@ -18936,8 +19209,11 @@
       <c r="H91" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1858</v>
       </c>
@@ -18962,8 +19238,11 @@
       <c r="H92" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1859</v>
       </c>
@@ -18988,8 +19267,11 @@
       <c r="H93" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2241</v>
       </c>
@@ -19014,8 +19296,11 @@
       <c r="H94" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2249</v>
       </c>
@@ -19040,8 +19325,11 @@
       <c r="H95" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2323</v>
       </c>
@@ -19066,8 +19354,11 @@
       <c r="H96" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2388</v>
       </c>
@@ -19092,8 +19383,11 @@
       <c r="H97" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2463</v>
       </c>
@@ -19118,8 +19412,11 @@
       <c r="H98" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2860</v>
       </c>
@@ -19144,8 +19441,11 @@
       <c r="H99" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2874</v>
       </c>
@@ -19170,8 +19470,11 @@
       <c r="H100" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2876</v>
       </c>
@@ -19196,8 +19499,11 @@
       <c r="H101" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2882</v>
       </c>
@@ -19222,8 +19528,11 @@
       <c r="H102" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3234</v>
       </c>
@@ -19248,8 +19557,11 @@
       <c r="H103" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3355</v>
       </c>
@@ -19274,8 +19586,11 @@
       <c r="H104" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>3432</v>
       </c>
@@ -19300,8 +19615,11 @@
       <c r="H105" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>3660</v>
       </c>
@@ -19326,8 +19644,11 @@
       <c r="H106" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>3727</v>
       </c>
@@ -19352,8 +19673,11 @@
       <c r="H107" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>3999</v>
       </c>
@@ -19378,8 +19702,11 @@
       <c r="H108" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4010</v>
       </c>
@@ -19404,8 +19731,11 @@
       <c r="H109" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4016</v>
       </c>
@@ -19430,8 +19760,11 @@
       <c r="H110" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4023</v>
       </c>
@@ -19456,8 +19789,11 @@
       <c r="H111" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4027</v>
       </c>
@@ -19482,8 +19818,11 @@
       <c r="H112" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4078</v>
       </c>
@@ -19508,8 +19847,11 @@
       <c r="H113" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4088</v>
       </c>
@@ -19534,8 +19876,11 @@
       <c r="H114" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4094</v>
       </c>
@@ -19560,8 +19905,11 @@
       <c r="H115" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4112</v>
       </c>
@@ -19586,8 +19934,11 @@
       <c r="H116" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4113</v>
       </c>
@@ -19612,8 +19963,11 @@
       <c r="H117" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4168</v>
       </c>
@@ -19638,8 +19992,11 @@
       <c r="H118" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4509</v>
       </c>
@@ -19664,8 +20021,11 @@
       <c r="H119" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4520</v>
       </c>
@@ -19690,8 +20050,11 @@
       <c r="H120" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4592</v>
       </c>
@@ -19716,8 +20079,11 @@
       <c r="H121" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>4616</v>
       </c>
@@ -19742,8 +20108,11 @@
       <c r="H122" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4629</v>
       </c>
@@ -19768,8 +20137,11 @@
       <c r="H123" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4638</v>
       </c>
@@ -19794,8 +20166,11 @@
       <c r="H124" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4920</v>
       </c>
@@ -19820,8 +20195,11 @@
       <c r="H125" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5133</v>
       </c>
@@ -19846,8 +20224,11 @@
       <c r="H126" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>5134</v>
       </c>
@@ -19872,8 +20253,11 @@
       <c r="H127" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>5206</v>
       </c>
@@ -19898,8 +20282,11 @@
       <c r="H128" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>299</v>
       </c>
@@ -19924,8 +20311,11 @@
       <c r="H129" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1330</v>
       </c>
@@ -19950,8 +20340,11 @@
       <c r="H130" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>241</v>
       </c>
@@ -19976,8 +20369,11 @@
       <c r="H131" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>302</v>
       </c>
@@ -20002,8 +20398,11 @@
       <c r="H132" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>305</v>
       </c>
@@ -20028,8 +20427,11 @@
       <c r="H133" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>306</v>
       </c>
@@ -20054,8 +20456,11 @@
       <c r="H134" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>524</v>
       </c>
@@ -20080,8 +20485,11 @@
       <c r="H135" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>842</v>
       </c>
@@ -20106,8 +20514,11 @@
       <c r="H136" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1369</v>
       </c>
@@ -20132,8 +20543,11 @@
       <c r="H137" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1857</v>
       </c>
@@ -20158,8 +20572,11 @@
       <c r="H138" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2242</v>
       </c>
@@ -20184,8 +20601,11 @@
       <c r="H139" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2250</v>
       </c>
@@ -20210,8 +20630,11 @@
       <c r="H140" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2324</v>
       </c>
@@ -20236,8 +20659,11 @@
       <c r="H141" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2877</v>
       </c>
@@ -20262,8 +20688,11 @@
       <c r="H142" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2883</v>
       </c>
@@ -20288,8 +20717,11 @@
       <c r="H143" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>3242</v>
       </c>
@@ -20314,8 +20746,11 @@
       <c r="H144" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>3433</v>
       </c>
@@ -20340,8 +20775,11 @@
       <c r="H145" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>3661</v>
       </c>
@@ -20366,8 +20804,11 @@
       <c r="H146" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4000</v>
       </c>
@@ -20392,8 +20833,11 @@
       <c r="H147" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4029</v>
       </c>
@@ -20418,8 +20862,11 @@
       <c r="H148" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4079</v>
       </c>
@@ -20444,8 +20891,11 @@
       <c r="H149" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4089</v>
       </c>
@@ -20470,8 +20920,11 @@
       <c r="H150" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4097</v>
       </c>
@@ -20496,8 +20949,11 @@
       <c r="H151" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4115</v>
       </c>
@@ -20522,8 +20978,11 @@
       <c r="H152" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4503</v>
       </c>
@@ -20548,8 +21007,11 @@
       <c r="H153" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4511</v>
       </c>
@@ -20574,8 +21036,11 @@
       <c r="H154" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4595</v>
       </c>
@@ -20600,8 +21065,11 @@
       <c r="H155" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4630</v>
       </c>
@@ -20626,8 +21094,11 @@
       <c r="H156" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>5207</v>
       </c>
@@ -20652,8 +21123,11 @@
       <c r="H157" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1331</v>
       </c>
@@ -20678,8 +21152,11 @@
       <c r="H158" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1360</v>
       </c>
@@ -20704,8 +21181,11 @@
       <c r="H159" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2091</v>
       </c>
@@ -20730,8 +21210,11 @@
       <c r="H160" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1361</v>
       </c>
@@ -20756,8 +21239,11 @@
       <c r="H161" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4155</v>
       </c>
@@ -20782,8 +21268,11 @@
       <c r="H162" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4153</v>
       </c>
@@ -20808,8 +21297,11 @@
       <c r="H163" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>5328</v>
       </c>
@@ -20834,8 +21326,11 @@
       <c r="H164" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2503</v>
       </c>
@@ -20860,8 +21355,11 @@
       <c r="H165" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2509</v>
       </c>
@@ -20886,8 +21384,11 @@
       <c r="H166" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4154</v>
       </c>
@@ -20912,8 +21413,11 @@
       <c r="H167" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5329</v>
       </c>
@@ -20938,8 +21442,11 @@
       <c r="H168" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>5338</v>
       </c>
@@ -20964,8 +21471,11 @@
       <c r="H169" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2505</v>
       </c>
@@ -20990,8 +21500,11 @@
       <c r="H170" t="s">
         <v>5386</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4853</v>
       </c>
@@ -20999,7 +21512,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4625</v>
       </c>
@@ -21007,7 +21520,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2454</v>
       </c>
@@ -21015,7 +21528,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4687</v>
       </c>
@@ -21023,7 +21536,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>5259</v>
       </c>
@@ -21031,7 +21544,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>576</v>
       </c>
